--- a/report.xlsx
+++ b/report.xlsx
@@ -64,11 +64,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -443,11 +442,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="5.071750341976081" customWidth="1" min="1" max="1"/>
+    <col width="20.28700136790432" customWidth="1" min="2" max="2"/>
+    <col width="34.23431480833855" customWidth="1" min="3" max="3"/>
+    <col width="24.09081412438638" customWidth="1" min="4" max="4"/>
+    <col width="38.03812756482061" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -733,19 +732,19 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="2" t="n">
         <v>91795</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
         <v>91340</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>18294</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="2" t="n">
         <v>305</v>
       </c>
     </row>
@@ -768,11 +767,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="2" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="19.0190637824103" customWidth="1" min="1" max="1"/>
+    <col width="19.0190637824103" customWidth="1" min="2" max="2"/>
+    <col width="19.0190637824103" customWidth="1" min="4" max="4"/>
+    <col width="16.48318861142226" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -786,7 +784,6 @@
           <t>Уровень зарплат</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr"/>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Город</t>
@@ -807,13 +804,12 @@
       <c r="B2" s="2" t="n">
         <v>76970</v>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Москва</t>
         </is>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="3" t="n">
         <v>0.3246</v>
       </c>
     </row>
@@ -826,13 +822,12 @@
       <c r="B3" s="2" t="n">
         <v>65286</v>
       </c>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Санкт-Петербург</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="3" t="n">
         <v>0.1197</v>
       </c>
     </row>
@@ -845,13 +840,12 @@
       <c r="B4" s="2" t="n">
         <v>62254</v>
       </c>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Новосибирск</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="3" t="n">
         <v>0.0271</v>
       </c>
     </row>
@@ -864,13 +858,12 @@
       <c r="B5" s="2" t="n">
         <v>60962</v>
       </c>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" s="2" t="inlineStr">
         <is>
           <t>Казань</t>
         </is>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="3" t="n">
         <v>0.0237</v>
       </c>
     </row>
@@ -883,13 +876,12 @@
       <c r="B6" s="2" t="n">
         <v>52580</v>
       </c>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" s="2" t="inlineStr">
         <is>
           <t>Нижний Новгород</t>
         </is>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="3" t="n">
         <v>0.0232</v>
       </c>
     </row>
@@ -902,13 +894,12 @@
       <c r="B7" s="2" t="n">
         <v>51644</v>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" s="2" t="inlineStr">
         <is>
           <t>Ростов-на-Дону</t>
         </is>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="3" t="n">
         <v>0.0209</v>
       </c>
     </row>
@@ -921,13 +912,12 @@
       <c r="B8" s="2" t="n">
         <v>51265</v>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" s="2" t="inlineStr">
         <is>
           <t>Екатеринбург</t>
         </is>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="3" t="n">
         <v>0.0207</v>
       </c>
     </row>
@@ -940,13 +930,12 @@
       <c r="B9" s="2" t="n">
         <v>50994</v>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" s="2" t="inlineStr">
         <is>
           <t>Краснодар</t>
         </is>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="3" t="n">
         <v>0.0185</v>
       </c>
     </row>
@@ -959,13 +948,12 @@
       <c r="B10" s="2" t="n">
         <v>48089</v>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" s="2" t="inlineStr">
         <is>
           <t>Самара</t>
         </is>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="3" t="n">
         <v>0.0143</v>
       </c>
     </row>
@@ -978,13 +966,12 @@
       <c r="B11" s="2" t="n">
         <v>47662</v>
       </c>
-      <c r="C11" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr">
         <is>
           <t>Воронеж</t>
         </is>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="3" t="n">
         <v>0.0141</v>
       </c>
     </row>
